--- a/back_pez/reporte.xlsx
+++ b/back_pez/reporte.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,8 +535,6 @@
           <t>Comentarios</t>
         </is>
       </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -604,13 +602,7 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -646,7 +638,7 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>100</v>
@@ -655,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>100</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -670,21 +662,15 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>100</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>100</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Bueno clase</t>
         </is>
@@ -756,13 +742,7 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -830,13 +810,7 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -904,13 +878,7 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -978,13 +946,7 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1052,13 +1014,7 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1126,13 +1082,7 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1200,13 +1150,7 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1274,13 +1218,7 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1348,13 +1286,7 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1390,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -1405,30 +1337,24 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>100</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>100</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
-        <v>100</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Buena</t>
         </is>
@@ -1500,13 +1426,7 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1574,13 +1494,7 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1648,13 +1562,7 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1722,13 +1630,7 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1796,13 +1698,7 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1870,13 +1766,7 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1944,13 +1834,7 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2018,13 +1902,7 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2092,13 +1970,7 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2166,13 +2038,7 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2240,13 +2106,7 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2314,13 +2174,7 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2388,13 +2242,7 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2462,13 +2310,7 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2536,13 +2378,7 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2610,13 +2446,7 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2684,13 +2514,7 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2758,13 +2582,7 @@
       <c r="U31" t="n">
         <v>0</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2832,13 +2650,7 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2906,13 +2718,7 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2980,13 +2786,7 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3054,13 +2854,7 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3128,13 +2922,7 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3202,13 +2990,7 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3276,13 +3058,7 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3350,13 +3126,7 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3424,13 +3194,7 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3498,13 +3262,7 @@
       <c r="U41" t="n">
         <v>0</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3572,13 +3330,7 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3646,13 +3398,7 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3720,13 +3466,7 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3794,13 +3534,7 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3868,13 +3602,7 @@
       <c r="U46" t="n">
         <v>0</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3942,13 +3670,7 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3984,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>100</v>
@@ -3993,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>100</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4008,21 +3730,15 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
         <v>100</v>
       </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
-      <c r="V48" t="n">
-        <v>100</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>Bueno clase</t>
         </is>
@@ -4094,13 +3810,7 @@
       <c r="U49" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4168,13 +3878,7 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4242,13 +3946,7 @@
       <c r="U51" t="n">
         <v>0</v>
       </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4316,13 +4014,7 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4390,13 +4082,7 @@
       <c r="U53" t="n">
         <v>0</v>
       </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4464,13 +4150,7 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4538,13 +4218,7 @@
       <c r="U55" t="n">
         <v>0</v>
       </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4612,13 +4286,7 @@
       <c r="U56" t="n">
         <v>0</v>
       </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4686,13 +4354,7 @@
       <c r="U57" t="n">
         <v>0</v>
       </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4760,13 +4422,7 @@
       <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4834,13 +4490,7 @@
       <c r="U59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4908,13 +4558,7 @@
       <c r="U60" t="n">
         <v>0</v>
       </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4982,13 +4626,7 @@
       <c r="U61" t="n">
         <v>0</v>
       </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5056,13 +4694,7 @@
       <c r="U62" t="n">
         <v>0</v>
       </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5130,13 +4762,7 @@
       <c r="U63" t="n">
         <v>0</v>
       </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5204,13 +4830,7 @@
       <c r="U64" t="n">
         <v>0</v>
       </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5278,13 +4898,7 @@
       <c r="U65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5352,13 +4966,7 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5426,13 +5034,7 @@
       <c r="U67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5500,13 +5102,7 @@
       <c r="U68" t="n">
         <v>0</v>
       </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5574,13 +5170,7 @@
       <c r="U69" t="n">
         <v>0</v>
       </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5648,13 +5238,7 @@
       <c r="U70" t="n">
         <v>0</v>
       </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5722,13 +5306,7 @@
       <c r="U71" t="n">
         <v>0</v>
       </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5796,13 +5374,7 @@
       <c r="U72" t="n">
         <v>0</v>
       </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5870,13 +5442,7 @@
       <c r="U73" t="n">
         <v>0</v>
       </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5944,13 +5510,7 @@
       <c r="U74" t="n">
         <v>0</v>
       </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6018,13 +5578,7 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6092,13 +5646,7 @@
       <c r="U76" t="n">
         <v>0</v>
       </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6166,13 +5714,7 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6240,13 +5782,7 @@
       <c r="U78" t="n">
         <v>0</v>
       </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6314,13 +5850,7 @@
       <c r="U79" t="n">
         <v>0</v>
       </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6388,13 +5918,7 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
